--- a/Datasheet/Form Evaluasi Penggunaan Dashboard Monitoring Divisi Pendidikan dan Pelatihan_Github Upload.xlsx
+++ b/Datasheet/Form Evaluasi Penggunaan Dashboard Monitoring Divisi Pendidikan dan Pelatihan_Github Upload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saipu\Downloads\Skripsi-Fix File\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saipu\Downloads\New folder (4)\full-stack-school-main\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DF1D1-CE92-4302-AE83-C480DAE6F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A6BD84-6196-4FD3-93F8-5BC833CA719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,18 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,8 +747,8 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -811,7 +799,7 @@
     </row>
     <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45674.51425925926</v>
+        <v>45674.651064814818</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>15</v>
@@ -819,7 +807,7 @@
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5">
@@ -844,7 +832,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>45674.515752314815</v>
+        <v>45674.651863425926</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>16</v>
@@ -852,7 +840,7 @@
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="8">
@@ -876,8 +864,8 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>45674.517245370371</v>
+      <c r="A4" s="4">
+        <v>45674.653483796297</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>20</v>
@@ -885,7 +873,7 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="5">
@@ -909,8 +897,8 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>45674.518738425926</v>
+      <c r="A5" s="7">
+        <v>45674.653923611113</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>26</v>
@@ -918,7 +906,7 @@
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="8">
@@ -942,8 +930,8 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>45674.520231481481</v>
+      <c r="A6" s="4">
+        <v>45674.65452546296</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>18</v>
@@ -951,7 +939,7 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5">
@@ -975,8 +963,8 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>45674.521724537037</v>
+      <c r="A7" s="7">
+        <v>45674.654907407406</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>22</v>
@@ -984,7 +972,7 @@
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="8">
@@ -1008,8 +996,8 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>45674.523217592592</v>
+      <c r="A8" s="4">
+        <v>45674.655451388891</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>23</v>
@@ -1017,7 +1005,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5">
@@ -1041,8 +1029,8 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>45674.524710648147</v>
+      <c r="A9" s="7">
+        <v>45674.655914351853</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>21</v>
@@ -1050,7 +1038,7 @@
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="8">
@@ -1074,8 +1062,8 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>45674.526203703703</v>
+      <c r="A10" s="4">
+        <v>45674.656527777777</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>18</v>
@@ -1083,7 +1071,7 @@
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5">
@@ -1107,8 +1095,8 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
-        <v>45674.527696759258</v>
+      <c r="A11" s="7">
+        <v>45674.657129629632</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>17</v>
@@ -1116,7 +1104,7 @@
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="8">
@@ -1140,8 +1128,8 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>45674.529189814813</v>
+      <c r="A12" s="4">
+        <v>45674.657870370371</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>17</v>
@@ -1149,7 +1137,7 @@
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="5">
@@ -1173,8 +1161,8 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <v>45674.530682870369</v>
+      <c r="A13" s="7">
+        <v>45674.658530092594</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -1182,7 +1170,7 @@
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="8">
@@ -1206,8 +1194,8 @@
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>45674.532175925924</v>
+      <c r="A14" s="4">
+        <v>45674.658993055556</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>25</v>
@@ -1215,7 +1203,7 @@
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="5">
@@ -1239,8 +1227,8 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>45674.533668981479</v>
+      <c r="A15" s="7">
+        <v>45674.660011574073</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>16</v>
@@ -1248,7 +1236,7 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="8">
@@ -1272,8 +1260,8 @@
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>45674.535162037035</v>
+      <c r="A16" s="4">
+        <v>45674.660879629628</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>26</v>
@@ -1281,7 +1269,7 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="5">
@@ -1305,8 +1293,8 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>45674.53665509259</v>
+      <c r="A17" s="7">
+        <v>45674.661423611113</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>17</v>
@@ -1314,7 +1302,7 @@
       <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="8">
@@ -1338,8 +1326,8 @@
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>45674.538148148145</v>
+      <c r="A18" s="4">
+        <v>45674.662106481483</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>20</v>
@@ -1347,7 +1335,7 @@
       <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="5">
@@ -1371,8 +1359,8 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>45674.539641203701</v>
+      <c r="A19" s="7">
+        <v>45674.662638888891</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>17</v>
@@ -1380,7 +1368,7 @@
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="8">
@@ -1404,8 +1392,8 @@
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>45674.541134259256</v>
+      <c r="A20" s="4">
+        <v>45674.667349537034</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>28</v>
@@ -1413,7 +1401,7 @@
       <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="5">
@@ -1437,8 +1425,8 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
-        <v>45674.542627314811</v>
+      <c r="A21" s="7">
+        <v>45674.667592592596</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>29</v>
@@ -1446,7 +1434,7 @@
       <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="8">
@@ -1470,8 +1458,8 @@
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>45674.544120370374</v>
+      <c r="A22" s="4">
+        <v>45674.670798611114</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>16</v>
@@ -1479,7 +1467,7 @@
       <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="5">
@@ -1503,8 +1491,8 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
-        <v>45674.545613425929</v>
+      <c r="A23" s="7">
+        <v>45674.672407407408</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>22</v>
@@ -1512,7 +1500,7 @@
       <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="8">
@@ -1536,8 +1524,8 @@
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>45674.547106481485</v>
+      <c r="A24" s="4">
+        <v>45674.672708333332</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>16</v>
@@ -1545,7 +1533,7 @@
       <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="5">
@@ -1569,8 +1557,8 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>45674.54859953704</v>
+      <c r="A25" s="7">
+        <v>45674.673252314817</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>21</v>
@@ -1578,7 +1566,7 @@
       <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="8">
@@ -1602,8 +1590,8 @@
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
-        <v>45674.550092592595</v>
+      <c r="A26" s="4">
+        <v>45674.675659722219</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>22</v>
@@ -1611,7 +1599,7 @@
       <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="5">
@@ -1635,8 +1623,8 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <v>45674.551585648151</v>
+      <c r="A27" s="7">
+        <v>45674.67597222222</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>16</v>
@@ -1644,7 +1632,7 @@
       <c r="C27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="8">
@@ -1668,8 +1656,8 @@
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>45674.553078703706</v>
+      <c r="A28" s="4">
+        <v>45674.676365740743</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>27</v>
@@ -1677,7 +1665,7 @@
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="5">
@@ -1701,8 +1689,8 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
-        <v>45674.554571759261</v>
+      <c r="A29" s="7">
+        <v>45674.678310185183</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>22</v>
@@ -1710,7 +1698,7 @@
       <c r="C29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="8">
@@ -1734,8 +1722,8 @@
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
-        <v>45674.556064814817</v>
+      <c r="A30" s="4">
+        <v>45674.679236111115</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>30</v>
@@ -1743,7 +1731,7 @@
       <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="5">
@@ -1767,8 +1755,8 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <v>45674.557557870372</v>
+      <c r="A31" s="7">
+        <v>45674.680324074077</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>25</v>
@@ -1776,7 +1764,7 @@
       <c r="C31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="8">
@@ -1800,8 +1788,8 @@
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
-        <v>45674.559050925927</v>
+      <c r="A32" s="4">
+        <v>45674.685023148151</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>18</v>
@@ -1809,7 +1797,7 @@
       <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="5">
@@ -1833,8 +1821,8 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
-        <v>45674.560543981483</v>
+      <c r="A33" s="7">
+        <v>45674.685231481482</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>22</v>
@@ -1842,7 +1830,7 @@
       <c r="C33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="8">
@@ -1866,8 +1854,8 @@
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
-        <v>45674.562037037038</v>
+      <c r="A34" s="4">
+        <v>45674.68613425926</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>18</v>
@@ -1875,7 +1863,7 @@
       <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="5">
@@ -1899,8 +1887,8 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
-        <v>45674.563530092593</v>
+      <c r="A35" s="7">
+        <v>45674.686435185184</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>16</v>
@@ -1908,7 +1896,7 @@
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="8">
@@ -1932,8 +1920,8 @@
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
-        <v>45674.565023148149</v>
+      <c r="A36" s="4">
+        <v>45674.687395833331</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>25</v>
@@ -1941,7 +1929,7 @@
       <c r="C36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="5">
@@ -1965,8 +1953,8 @@
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
-        <v>45674.566516203704</v>
+      <c r="A37" s="7">
+        <v>45674.687592592592</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>22</v>
@@ -1974,7 +1962,7 @@
       <c r="C37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="8">
@@ -1998,8 +1986,8 @@
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="19">
-        <v>45674.568009259259</v>
+      <c r="A38" s="4">
+        <v>45674.688055555554</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>16</v>
@@ -2007,7 +1995,7 @@
       <c r="C38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="5">
@@ -2031,8 +2019,8 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
-        <v>45674.569502314815</v>
+      <c r="A39" s="7">
+        <v>45674.689085648148</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>31</v>
@@ -2040,7 +2028,7 @@
       <c r="C39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="8">
@@ -2064,8 +2052,8 @@
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="19">
-        <v>45674.57099537037</v>
+      <c r="A40" s="4">
+        <v>45674.68949074074</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>24</v>
@@ -2073,7 +2061,7 @@
       <c r="C40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="5">
@@ -2097,8 +2085,8 @@
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
-        <v>45674.572488425925</v>
+      <c r="A41" s="7">
+        <v>45674.689687500002</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>32</v>
@@ -2106,7 +2094,7 @@
       <c r="C41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="8">
@@ -2130,8 +2118,8 @@
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
-        <v>45674.573981481481</v>
+      <c r="A42" s="4">
+        <v>45674.690567129626</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>18</v>
@@ -2139,7 +2127,7 @@
       <c r="C42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="5">
@@ -2163,8 +2151,8 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="21">
-        <v>45674.575474537036</v>
+      <c r="A43" s="7">
+        <v>45674.691481481481</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>33</v>
@@ -2172,7 +2160,7 @@
       <c r="C43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="8">
@@ -2196,8 +2184,8 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
-        <v>45674.576967592591</v>
+      <c r="A44" s="4">
+        <v>45674.692696759259</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>20</v>
@@ -2205,7 +2193,7 @@
       <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="5">
@@ -2229,8 +2217,8 @@
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
-        <v>45674.578460648147</v>
+      <c r="A45" s="7">
+        <v>45674.694618055553</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>26</v>
@@ -2238,7 +2226,7 @@
       <c r="C45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="8">
@@ -2262,8 +2250,8 @@
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="19">
-        <v>45674.579953703702</v>
+      <c r="A46" s="4">
+        <v>45674.696909722225</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>16</v>
@@ -2271,7 +2259,7 @@
       <c r="C46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="5">
@@ -2295,8 +2283,8 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="21">
-        <v>45674.581446759257</v>
+      <c r="A47" s="7">
+        <v>45674.697106481479</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>33</v>
@@ -2304,7 +2292,7 @@
       <c r="C47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="8">
@@ -2328,8 +2316,8 @@
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="19">
-        <v>45674.582939814813</v>
+      <c r="A48" s="4">
+        <v>45674.698877314811</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>29</v>
@@ -2337,7 +2325,7 @@
       <c r="C48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="5">
@@ -2361,8 +2349,8 @@
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="21">
-        <v>45674.584432870368</v>
+      <c r="A49" s="7">
+        <v>45674.699884259258</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>17</v>
@@ -2370,7 +2358,7 @@
       <c r="C49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="8">
@@ -2394,8 +2382,8 @@
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="19">
-        <v>45674.585925925923</v>
+      <c r="A50" s="4">
+        <v>45674.700300925928</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>24</v>
@@ -2403,7 +2391,7 @@
       <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="5">
@@ -2427,8 +2415,8 @@
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="21">
-        <v>45674.587418981479</v>
+      <c r="A51" s="7">
+        <v>45674.701874999999</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>34</v>
@@ -2436,7 +2424,7 @@
       <c r="C51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="8">
@@ -2460,8 +2448,8 @@
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="19">
-        <v>45674.588912037034</v>
+      <c r="A52" s="4">
+        <v>45674.705243055556</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>25</v>
@@ -2469,7 +2457,7 @@
       <c r="C52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="5">
@@ -2493,8 +2481,8 @@
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="21">
-        <v>45674.590405092589</v>
+      <c r="A53" s="7">
+        <v>45674.70553240741</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>16</v>
@@ -2502,7 +2490,7 @@
       <c r="C53" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="8">
@@ -2526,8 +2514,8 @@
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="19">
-        <v>45674.591898148145</v>
+      <c r="A54" s="4">
+        <v>45674.706273148149</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>32</v>
@@ -2535,7 +2523,7 @@
       <c r="C54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="5">
@@ -2559,8 +2547,8 @@
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="21">
-        <v>45674.593391203707</v>
+      <c r="A55" s="7">
+        <v>45674.70648148148</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>35</v>
@@ -2568,7 +2556,7 @@
       <c r="C55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E55" s="8">
@@ -2592,8 +2580,8 @@
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="19">
-        <v>45674.594884259262</v>
+      <c r="A56" s="4">
+        <v>45674.706909722219</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>17</v>
@@ -2601,7 +2589,7 @@
       <c r="C56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="5">
@@ -2625,8 +2613,8 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="21">
-        <v>45674.596377314818</v>
+      <c r="A57" s="7">
+        <v>45674.707685185182</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>22</v>
@@ -2634,7 +2622,7 @@
       <c r="C57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="8">
@@ -2658,8 +2646,8 @@
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="19">
-        <v>45674.597870370373</v>
+      <c r="A58" s="4">
+        <v>45674.708240740743</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>32</v>
@@ -2667,7 +2655,7 @@
       <c r="C58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="10">
@@ -2700,8 +2688,9 @@
     <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Datasheet/Form Evaluasi Penggunaan Dashboard Monitoring Divisi Pendidikan dan Pelatihan_Github Upload.xlsx
+++ b/Datasheet/Form Evaluasi Penggunaan Dashboard Monitoring Divisi Pendidikan dan Pelatihan_Github Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saipu\Downloads\New folder (4)\full-stack-school-main\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A6BD84-6196-4FD3-93F8-5BC833CA719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6D5D5-DD31-4DEC-9A91-F150C32B652F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="97">
   <si>
     <t>Timestamp</t>
   </si>
@@ -140,6 +140,177 @@
   </si>
   <si>
     <t>Officer</t>
+  </si>
+  <si>
+    <t>Perlu penjadwalan tugas secara otomatis untuk tiap peserta.</t>
+  </si>
+  <si>
+    <t>Perlu validasi data input agar tidak terjadi duplikasi.</t>
+  </si>
+  <si>
+    <t>Dashboard bisa dilengkapi dengan rekap nilai otomatis.</t>
+  </si>
+  <si>
+    <t>Sebaiknya sistem bisa diakses lewat aplikasi mobile.</t>
+  </si>
+  <si>
+    <t>Akan lebih lengkap jika ditambahkan fitur upload materi pelatihan.</t>
+  </si>
+  <si>
+    <t>Perlu fitur upload sertifikat pelatihan secara otomatis.</t>
+  </si>
+  <si>
+    <t>Butuh fitur pengarsipan pelatihan lama.</t>
+  </si>
+  <si>
+    <t>Sistem dapat menyimpan draft sebelum data disimpan permanen.</t>
+  </si>
+  <si>
+    <t>Tampilan bisa lebih ringan untuk akses internet lambat.</t>
+  </si>
+  <si>
+    <t>Tampilan halaman login bisa dibuat lebih menarik.</t>
+  </si>
+  <si>
+    <t>Sistem bisa dikembangkan agar terhubung dengan data kepegawaian.</t>
+  </si>
+  <si>
+    <t>Bisa ditambahkan fitur ekspor nilai ke format PDF.</t>
+  </si>
+  <si>
+    <t>Fitur bookmark pelatihan bisa sangat berguna.</t>
+  </si>
+  <si>
+    <t>Tampilan materi pelatihan bisa lebih terstruktur.</t>
+  </si>
+  <si>
+    <t>Perlu riwayat log aktivitas setiap user.</t>
+  </si>
+  <si>
+    <t>Dashboard bisa diberi akses guest untuk demo perusahaan lain.</t>
+  </si>
+  <si>
+    <t>Butuh integrasi sistem dengan email perusahaan.</t>
+  </si>
+  <si>
+    <t>Perlu tambahan pengingat otomatis sebelum deadline tugas.</t>
+  </si>
+  <si>
+    <t>Dashboard bisa dilengkapi dengan info pelatihan berikutnya.</t>
+  </si>
+  <si>
+    <t>Perlu audit trail untuk setiap perubahan data.</t>
+  </si>
+  <si>
+    <t>Perlu fitur pengelompokan peserta berdasarkan batch.</t>
+  </si>
+  <si>
+    <t>Tampilan bisa dibuat lebih responsif untuk semua perangkat.</t>
+  </si>
+  <si>
+    <t>Sebaiknya ada integrasi dengan kalender pelatihan.</t>
+  </si>
+  <si>
+    <t>Fitur cetak daftar hadir akan sangat membantu.</t>
+  </si>
+  <si>
+    <t>Perlu fitur filter data berdasarkan jenis pelatihan.</t>
+  </si>
+  <si>
+    <t>Tampilan bisa disederhanakan untuk pengguna baru.</t>
+  </si>
+  <si>
+    <t>Tampilan grafik perkembangan peserta bisa ditambah.</t>
+  </si>
+  <si>
+    <t>Akan lebih baik jika tersedia fitur notifikasi tugas baru.</t>
+  </si>
+  <si>
+    <t>Sistem bisa mendukung lebih dari satu divisi pelatihan.</t>
+  </si>
+  <si>
+    <t>Bisa ditambahkan fitur komentar antar peserta.</t>
+  </si>
+  <si>
+    <t>Fitur tracking progres peserta bisa lebih detail.</t>
+  </si>
+  <si>
+    <t>Sistem bisa menampilkan progres harian tiap peserta.</t>
+  </si>
+  <si>
+    <t>Tampilan dashboard bisa dibuat lebih interaktif.</t>
+  </si>
+  <si>
+    <t>Perlu ditambahkan fitur backup data otomatis.</t>
+  </si>
+  <si>
+    <t>Butuh fitur cetak langsung dari sistem.</t>
+  </si>
+  <si>
+    <t>Fitur upload tugas peserta bisa lebih fleksibel.</t>
+  </si>
+  <si>
+    <t>Perlu penyempurnaan proses input data agar lebih cepat.</t>
+  </si>
+  <si>
+    <t>Fitur notifikasi bisa diperluas ke WhatsApp atau SMS.</t>
+  </si>
+  <si>
+    <t>Perlu fitur komunikasi langsung antara peserta dan pengajar.</t>
+  </si>
+  <si>
+    <t>Fitur export sebaiknya bisa dijadwalkan otomatis mingguan.</t>
+  </si>
+  <si>
+    <t>Perlu pengaturan tema atau mode gelap untuk kenyamanan pengguna.</t>
+  </si>
+  <si>
+    <t>Bisa ditambahkan fitur akses cepat ke pelatihan yang sedang berjalan.</t>
+  </si>
+  <si>
+    <t>Sistem dapat ditambahkan fitur live chat support.</t>
+  </si>
+  <si>
+    <t>Sistem bisa mendukung lebih banyak jenis peran pengguna.</t>
+  </si>
+  <si>
+    <t>Dashboard bisa menyediakan grafik evaluasi pelatihan.</t>
+  </si>
+  <si>
+    <t>Perlu pemberitahuan jika data berhasil diinput.</t>
+  </si>
+  <si>
+    <t>Sistem bisa mendukung import data dari Excel.</t>
+  </si>
+  <si>
+    <t>Fitur drag and drop file bisa ditambahkan.</t>
+  </si>
+  <si>
+    <t>Sistem bisa mendukung multi-user login secara aman.</t>
+  </si>
+  <si>
+    <t>Perlu riwayat aktivitas pengguna untuk keamanan data.</t>
+  </si>
+  <si>
+    <t>Tampilan kalender pelatihan bisa diperbesar dan interaktif.</t>
+  </si>
+  <si>
+    <t>Perlu sistem penilaian otomatis dari tugas.</t>
+  </si>
+  <si>
+    <t>Tampilan statistik bisa lebih interaktif dan mudah dipahami.</t>
+  </si>
+  <si>
+    <t>Perlu tersedia bantuan atau panduan penggunaan sistem.</t>
+  </si>
+  <si>
+    <t>Perlu ditambahkan fitur reminder jadwal pelatihan.</t>
+  </si>
+  <si>
+    <t>Perlu sistem feedback dari peserta untuk evaluasi pelatihan.</t>
+  </si>
+  <si>
+    <t>Tampilan tabel peserta bisa dilengkapi dengan opsi sortir.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -162,6 +333,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -256,21 +434,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
@@ -296,51 +459,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
       </bottom>
       <diagonal/>
     </border>
@@ -383,11 +501,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -404,44 +548,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,11 +889,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -801,7 +946,7 @@
       <c r="A2" s="4">
         <v>45674.651064814818</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -828,46 +973,50 @@
       <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>45674.651863425926</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8">
-        <v>6</v>
-      </c>
-      <c r="G3" s="8">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8">
-        <v>5</v>
-      </c>
-      <c r="K3" s="9"/>
+      <c r="E3" s="7">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7">
+        <v>5</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45674.653483796297</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -894,46 +1043,50 @@
       <c r="J4" s="5">
         <v>5</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>45674.653923611113</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8">
-        <v>6</v>
-      </c>
-      <c r="I5" s="8">
-        <v>4</v>
-      </c>
-      <c r="J5" s="8">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9"/>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45674.65452546296</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -960,46 +1113,50 @@
       <c r="J6" s="5">
         <v>4</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>45674.654907407406</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8">
-        <v>6</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8">
-        <v>5</v>
-      </c>
-      <c r="I7" s="8">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8">
-        <v>3</v>
-      </c>
-      <c r="K7" s="9"/>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45674.655451388891</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1026,46 +1183,50 @@
       <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>45674.655914351853</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="8">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7</v>
-      </c>
-      <c r="G9" s="8">
-        <v>6</v>
-      </c>
-      <c r="H9" s="8">
-        <v>6</v>
-      </c>
-      <c r="I9" s="8">
-        <v>3</v>
-      </c>
-      <c r="J9" s="8">
-        <v>4</v>
-      </c>
-      <c r="K9" s="9"/>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45674.656527777777</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1092,46 +1253,50 @@
       <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>45674.657129629632</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8">
-        <v>7</v>
-      </c>
-      <c r="G11" s="8">
-        <v>7</v>
-      </c>
-      <c r="H11" s="8">
-        <v>6</v>
-      </c>
-      <c r="I11" s="8">
-        <v>5</v>
-      </c>
-      <c r="J11" s="8">
-        <v>6</v>
-      </c>
-      <c r="K11" s="9"/>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>6</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45674.657870370371</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1158,46 +1323,50 @@
       <c r="J12" s="5">
         <v>6</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>45674.658530092594</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="8">
-        <v>3</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8">
-        <v>4</v>
-      </c>
-      <c r="H13" s="8">
-        <v>6</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="8">
-        <v>3</v>
-      </c>
-      <c r="K13" s="9"/>
+      <c r="J13" s="7">
+        <v>3</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45674.658993055556</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1224,46 +1393,50 @@
       <c r="J14" s="5">
         <v>4</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>45674.660011574073</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8">
-        <v>4</v>
-      </c>
-      <c r="H15" s="8">
-        <v>5</v>
-      </c>
-      <c r="I15" s="8">
-        <v>6</v>
-      </c>
-      <c r="J15" s="8">
-        <v>6</v>
-      </c>
-      <c r="K15" s="9"/>
+      <c r="E15" s="7">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45674.660879629628</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1290,46 +1463,50 @@
       <c r="J16" s="5">
         <v>6</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>45674.661423611113</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="8">
-        <v>7</v>
-      </c>
-      <c r="F17" s="8">
-        <v>7</v>
-      </c>
-      <c r="G17" s="8">
-        <v>7</v>
-      </c>
-      <c r="H17" s="8">
-        <v>7</v>
-      </c>
-      <c r="I17" s="8">
-        <v>7</v>
-      </c>
-      <c r="J17" s="8">
-        <v>7</v>
-      </c>
-      <c r="K17" s="9"/>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>7</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7">
+        <v>7</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>45674.662106481483</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1356,46 +1533,50 @@
       <c r="J18" s="5">
         <v>4</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>45674.662638888891</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="8">
-        <v>3</v>
-      </c>
-      <c r="F19" s="8">
-        <v>5</v>
-      </c>
-      <c r="G19" s="8">
-        <v>3</v>
-      </c>
-      <c r="H19" s="8">
-        <v>4</v>
-      </c>
-      <c r="I19" s="8">
-        <v>5</v>
-      </c>
-      <c r="J19" s="8">
-        <v>4</v>
-      </c>
-      <c r="K19" s="9"/>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>4</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>45674.667349537034</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1422,46 +1603,50 @@
       <c r="J20" s="5">
         <v>5</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>45674.667592592596</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="8">
-        <v>7</v>
-      </c>
-      <c r="F21" s="8">
-        <v>7</v>
-      </c>
-      <c r="G21" s="8">
-        <v>7</v>
-      </c>
-      <c r="H21" s="8">
-        <v>6</v>
-      </c>
-      <c r="I21" s="8">
-        <v>6</v>
-      </c>
-      <c r="J21" s="8">
-        <v>6</v>
-      </c>
-      <c r="K21" s="9"/>
+      <c r="E21" s="7">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7">
+        <v>7</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6</v>
+      </c>
+      <c r="J21" s="7">
+        <v>6</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>45674.670798611114</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1488,46 +1673,50 @@
       <c r="J22" s="5">
         <v>5</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>45674.672407407408</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="8">
-        <v>4</v>
-      </c>
-      <c r="F23" s="8">
-        <v>3</v>
-      </c>
-      <c r="G23" s="8">
-        <v>3</v>
-      </c>
-      <c r="H23" s="8">
-        <v>4</v>
-      </c>
-      <c r="I23" s="8">
-        <v>6</v>
-      </c>
-      <c r="J23" s="8">
-        <v>6</v>
-      </c>
-      <c r="K23" s="9"/>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>6</v>
+      </c>
+      <c r="J23" s="7">
+        <v>6</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45674.672708333332</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1554,46 +1743,50 @@
       <c r="J24" s="5">
         <v>7</v>
       </c>
-      <c r="K24" s="6"/>
+      <c r="K24" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>45674.673252314817</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="8">
-        <v>4</v>
-      </c>
-      <c r="F25" s="8">
-        <v>5</v>
-      </c>
-      <c r="G25" s="8">
-        <v>6</v>
-      </c>
-      <c r="H25" s="8">
-        <v>6</v>
-      </c>
-      <c r="I25" s="8">
-        <v>7</v>
-      </c>
-      <c r="J25" s="8">
-        <v>7</v>
-      </c>
-      <c r="K25" s="9"/>
+      <c r="E25" s="7">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>6</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7</v>
+      </c>
+      <c r="J25" s="7">
+        <v>7</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45674.675659722219</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1620,46 +1813,50 @@
       <c r="J26" s="5">
         <v>5</v>
       </c>
-      <c r="K26" s="6"/>
+      <c r="K26" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>45674.67597222222</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="8">
-        <v>6</v>
-      </c>
-      <c r="F27" s="8">
-        <v>7</v>
-      </c>
-      <c r="G27" s="8">
-        <v>6</v>
-      </c>
-      <c r="H27" s="8">
-        <v>5</v>
-      </c>
-      <c r="I27" s="8">
-        <v>5</v>
-      </c>
-      <c r="J27" s="8">
-        <v>6</v>
-      </c>
-      <c r="K27" s="9"/>
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7">
+        <v>7</v>
+      </c>
+      <c r="G27" s="7">
+        <v>6</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5</v>
+      </c>
+      <c r="J27" s="7">
+        <v>6</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>45674.676365740743</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1686,46 +1883,50 @@
       <c r="J28" s="5">
         <v>6</v>
       </c>
-      <c r="K28" s="6"/>
+      <c r="K28" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>45674.678310185183</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="8">
-        <v>3</v>
-      </c>
-      <c r="F29" s="8">
-        <v>4</v>
-      </c>
-      <c r="G29" s="8">
-        <v>4</v>
-      </c>
-      <c r="H29" s="8">
-        <v>5</v>
-      </c>
-      <c r="I29" s="8">
-        <v>6</v>
-      </c>
-      <c r="J29" s="8">
-        <v>6</v>
-      </c>
-      <c r="K29" s="9"/>
+      <c r="E29" s="7">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7">
+        <v>4</v>
+      </c>
+      <c r="G29" s="7">
+        <v>4</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6</v>
+      </c>
+      <c r="J29" s="7">
+        <v>6</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>45674.679236111115</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1752,46 +1953,50 @@
       <c r="J30" s="5">
         <v>2</v>
       </c>
-      <c r="K30" s="6"/>
+      <c r="K30" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>45674.680324074077</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="8">
-        <v>7</v>
-      </c>
-      <c r="F31" s="8">
-        <v>6</v>
-      </c>
-      <c r="G31" s="8">
-        <v>7</v>
-      </c>
-      <c r="H31" s="8">
-        <v>5</v>
-      </c>
-      <c r="I31" s="8">
-        <v>6</v>
-      </c>
-      <c r="J31" s="8">
-        <v>7</v>
-      </c>
-      <c r="K31" s="9"/>
+      <c r="E31" s="7">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7">
+        <v>7</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6</v>
+      </c>
+      <c r="J31" s="7">
+        <v>7</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>45674.685023148151</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1818,46 +2023,50 @@
       <c r="J32" s="5">
         <v>6</v>
       </c>
-      <c r="K32" s="6"/>
+      <c r="K32" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>45674.685231481482</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="8">
-        <v>6</v>
-      </c>
-      <c r="F33" s="8">
-        <v>7</v>
-      </c>
-      <c r="G33" s="8">
-        <v>5</v>
-      </c>
-      <c r="H33" s="8">
-        <v>6</v>
-      </c>
-      <c r="I33" s="8">
-        <v>5</v>
-      </c>
-      <c r="J33" s="8">
-        <v>4</v>
-      </c>
-      <c r="K33" s="9"/>
+      <c r="D33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="7">
+        <v>6</v>
+      </c>
+      <c r="F33" s="7">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7">
+        <v>5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>6</v>
+      </c>
+      <c r="I33" s="7">
+        <v>5</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>45674.68613425926</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1884,46 +2093,50 @@
       <c r="J34" s="5">
         <v>6</v>
       </c>
-      <c r="K34" s="6"/>
+      <c r="K34" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>45674.686435185184</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="8">
-        <v>6</v>
-      </c>
-      <c r="F35" s="8">
-        <v>7</v>
-      </c>
-      <c r="G35" s="8">
-        <v>6</v>
-      </c>
-      <c r="H35" s="8">
-        <v>7</v>
-      </c>
-      <c r="I35" s="8">
-        <v>6</v>
-      </c>
-      <c r="J35" s="8">
-        <v>7</v>
-      </c>
-      <c r="K35" s="9"/>
+      <c r="D35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6</v>
+      </c>
+      <c r="F35" s="7">
+        <v>7</v>
+      </c>
+      <c r="G35" s="7">
+        <v>6</v>
+      </c>
+      <c r="H35" s="7">
+        <v>7</v>
+      </c>
+      <c r="I35" s="7">
+        <v>6</v>
+      </c>
+      <c r="J35" s="7">
+        <v>7</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45674.687395833331</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1950,46 +2163,50 @@
       <c r="J36" s="5">
         <v>7</v>
       </c>
-      <c r="K36" s="6"/>
+      <c r="K36" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>45674.687592592592</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="8">
-        <v>6</v>
-      </c>
-      <c r="F37" s="8">
-        <v>7</v>
-      </c>
-      <c r="G37" s="8">
-        <v>5</v>
-      </c>
-      <c r="H37" s="8">
-        <v>7</v>
-      </c>
-      <c r="I37" s="8">
-        <v>7</v>
-      </c>
-      <c r="J37" s="8">
-        <v>7</v>
-      </c>
-      <c r="K37" s="9"/>
+      <c r="D37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7">
+        <v>6</v>
+      </c>
+      <c r="F37" s="7">
+        <v>7</v>
+      </c>
+      <c r="G37" s="7">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7">
+        <v>7</v>
+      </c>
+      <c r="I37" s="7">
+        <v>7</v>
+      </c>
+      <c r="J37" s="7">
+        <v>7</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45674.688055555554</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2016,46 +2233,50 @@
       <c r="J38" s="5">
         <v>4</v>
       </c>
-      <c r="K38" s="6"/>
+      <c r="K38" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>45674.689085648148</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="8">
-        <v>3</v>
-      </c>
-      <c r="F39" s="8">
-        <v>4</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="D39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4</v>
+      </c>
+      <c r="G39" s="7">
         <v>2</v>
       </c>
-      <c r="H39" s="8">
-        <v>4</v>
-      </c>
-      <c r="I39" s="8">
-        <v>3</v>
-      </c>
-      <c r="J39" s="8">
-        <v>5</v>
-      </c>
-      <c r="K39" s="9"/>
+      <c r="H39" s="7">
+        <v>4</v>
+      </c>
+      <c r="I39" s="7">
+        <v>3</v>
+      </c>
+      <c r="J39" s="7">
+        <v>5</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45674.68949074074</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2082,46 +2303,50 @@
       <c r="J40" s="5">
         <v>6</v>
       </c>
-      <c r="K40" s="6"/>
+      <c r="K40" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>45674.689687500002</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="8">
-        <v>3</v>
-      </c>
-      <c r="F41" s="8">
-        <v>4</v>
-      </c>
-      <c r="G41" s="8">
-        <v>6</v>
-      </c>
-      <c r="H41" s="8">
-        <v>5</v>
-      </c>
-      <c r="I41" s="8">
-        <v>4</v>
-      </c>
-      <c r="J41" s="8">
-        <v>5</v>
-      </c>
-      <c r="K41" s="9"/>
+      <c r="D41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3</v>
+      </c>
+      <c r="F41" s="7">
+        <v>4</v>
+      </c>
+      <c r="G41" s="7">
+        <v>6</v>
+      </c>
+      <c r="H41" s="7">
+        <v>5</v>
+      </c>
+      <c r="I41" s="7">
+        <v>4</v>
+      </c>
+      <c r="J41" s="7">
+        <v>5</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45674.690567129626</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -2148,46 +2373,50 @@
       <c r="J42" s="5">
         <v>5</v>
       </c>
-      <c r="K42" s="6"/>
+      <c r="K42" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>45674.691481481481</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="8">
-        <v>6</v>
-      </c>
-      <c r="F43" s="8">
-        <v>5</v>
-      </c>
-      <c r="G43" s="8">
-        <v>7</v>
-      </c>
-      <c r="H43" s="8">
-        <v>6</v>
-      </c>
-      <c r="I43" s="8">
-        <v>5</v>
-      </c>
-      <c r="J43" s="8">
-        <v>6</v>
-      </c>
-      <c r="K43" s="9"/>
+      <c r="D43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="7">
+        <v>6</v>
+      </c>
+      <c r="F43" s="7">
+        <v>5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>7</v>
+      </c>
+      <c r="H43" s="7">
+        <v>6</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5</v>
+      </c>
+      <c r="J43" s="7">
+        <v>6</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45674.692696759259</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2214,46 +2443,50 @@
       <c r="J44" s="5">
         <v>6</v>
       </c>
-      <c r="K44" s="6"/>
+      <c r="K44" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>45674.694618055553</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="8">
-        <v>6</v>
-      </c>
-      <c r="F45" s="8">
-        <v>7</v>
-      </c>
-      <c r="G45" s="8">
-        <v>6</v>
-      </c>
-      <c r="H45" s="8">
-        <v>5</v>
-      </c>
-      <c r="I45" s="8">
-        <v>6</v>
-      </c>
-      <c r="J45" s="8">
-        <v>5</v>
-      </c>
-      <c r="K45" s="9"/>
+      <c r="D45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="7">
+        <v>6</v>
+      </c>
+      <c r="F45" s="7">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
+      <c r="H45" s="7">
+        <v>5</v>
+      </c>
+      <c r="I45" s="7">
+        <v>6</v>
+      </c>
+      <c r="J45" s="7">
+        <v>5</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45674.696909722225</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2280,46 +2513,50 @@
       <c r="J46" s="5">
         <v>7</v>
       </c>
-      <c r="K46" s="6"/>
+      <c r="K46" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>45674.697106481479</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="8">
-        <v>5</v>
-      </c>
-      <c r="F47" s="8">
-        <v>6</v>
-      </c>
-      <c r="G47" s="8">
-        <v>5</v>
-      </c>
-      <c r="H47" s="8">
-        <v>6</v>
-      </c>
-      <c r="I47" s="8">
-        <v>5</v>
-      </c>
-      <c r="J47" s="8">
-        <v>6</v>
-      </c>
-      <c r="K47" s="9"/>
+      <c r="D47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="7">
+        <v>5</v>
+      </c>
+      <c r="F47" s="7">
+        <v>6</v>
+      </c>
+      <c r="G47" s="7">
+        <v>5</v>
+      </c>
+      <c r="H47" s="7">
+        <v>6</v>
+      </c>
+      <c r="I47" s="7">
+        <v>5</v>
+      </c>
+      <c r="J47" s="7">
+        <v>6</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45674.698877314811</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2346,46 +2583,50 @@
       <c r="J48" s="5">
         <v>5</v>
       </c>
-      <c r="K48" s="6"/>
+      <c r="K48" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>45674.699884259258</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="8">
-        <v>4</v>
-      </c>
-      <c r="F49" s="8">
-        <v>5</v>
-      </c>
-      <c r="G49" s="8">
-        <v>3</v>
-      </c>
-      <c r="H49" s="8">
-        <v>5</v>
-      </c>
-      <c r="I49" s="8">
-        <v>6</v>
-      </c>
-      <c r="J49" s="8">
-        <v>5</v>
-      </c>
-      <c r="K49" s="9"/>
+      <c r="E49" s="7">
+        <v>4</v>
+      </c>
+      <c r="F49" s="7">
+        <v>5</v>
+      </c>
+      <c r="G49" s="7">
+        <v>3</v>
+      </c>
+      <c r="H49" s="7">
+        <v>5</v>
+      </c>
+      <c r="I49" s="7">
+        <v>6</v>
+      </c>
+      <c r="J49" s="7">
+        <v>5</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>45674.700300925928</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2412,46 +2653,50 @@
       <c r="J50" s="5">
         <v>4</v>
       </c>
-      <c r="K50" s="6"/>
+      <c r="K50" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>45674.701874999999</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="8">
-        <v>3</v>
-      </c>
-      <c r="F51" s="8">
-        <v>4</v>
-      </c>
-      <c r="G51" s="8">
-        <v>3</v>
-      </c>
-      <c r="H51" s="8">
+      <c r="D51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="7">
+        <v>3</v>
+      </c>
+      <c r="F51" s="7">
+        <v>4</v>
+      </c>
+      <c r="G51" s="7">
+        <v>3</v>
+      </c>
+      <c r="H51" s="7">
         <v>2</v>
       </c>
-      <c r="I51" s="8">
-        <v>3</v>
-      </c>
-      <c r="J51" s="8">
-        <v>5</v>
-      </c>
-      <c r="K51" s="9"/>
+      <c r="I51" s="7">
+        <v>3</v>
+      </c>
+      <c r="J51" s="7">
+        <v>5</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>45674.705243055556</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2478,46 +2723,50 @@
       <c r="J52" s="5">
         <v>4</v>
       </c>
-      <c r="K52" s="6"/>
+      <c r="K52" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>45674.70553240741</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="8">
-        <v>6</v>
-      </c>
-      <c r="F53" s="8">
-        <v>7</v>
-      </c>
-      <c r="G53" s="8">
-        <v>6</v>
-      </c>
-      <c r="H53" s="8">
-        <v>7</v>
-      </c>
-      <c r="I53" s="8">
-        <v>6</v>
-      </c>
-      <c r="J53" s="8">
-        <v>7</v>
-      </c>
-      <c r="K53" s="9"/>
+      <c r="E53" s="7">
+        <v>6</v>
+      </c>
+      <c r="F53" s="7">
+        <v>7</v>
+      </c>
+      <c r="G53" s="7">
+        <v>6</v>
+      </c>
+      <c r="H53" s="7">
+        <v>7</v>
+      </c>
+      <c r="I53" s="7">
+        <v>6</v>
+      </c>
+      <c r="J53" s="7">
+        <v>7</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>45674.706273148149</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -2544,46 +2793,50 @@
       <c r="J54" s="5">
         <v>7</v>
       </c>
-      <c r="K54" s="6"/>
+      <c r="K54" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>45674.70648148148</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="8">
-        <v>6</v>
-      </c>
-      <c r="F55" s="8">
-        <v>6</v>
-      </c>
-      <c r="G55" s="8">
-        <v>5</v>
-      </c>
-      <c r="H55" s="8">
-        <v>7</v>
-      </c>
-      <c r="I55" s="8">
-        <v>6</v>
-      </c>
-      <c r="J55" s="8">
-        <v>6</v>
-      </c>
-      <c r="K55" s="9"/>
+      <c r="E55" s="7">
+        <v>6</v>
+      </c>
+      <c r="F55" s="7">
+        <v>6</v>
+      </c>
+      <c r="G55" s="7">
+        <v>5</v>
+      </c>
+      <c r="H55" s="7">
+        <v>7</v>
+      </c>
+      <c r="I55" s="7">
+        <v>6</v>
+      </c>
+      <c r="J55" s="7">
+        <v>6</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>45674.706909722219</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -2610,82 +2863,80 @@
       <c r="J56" s="5">
         <v>2</v>
       </c>
-      <c r="K56" s="6"/>
+      <c r="K56" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>45674.707685185182</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="8">
-        <v>6</v>
-      </c>
-      <c r="F57" s="8">
-        <v>7</v>
-      </c>
-      <c r="G57" s="8">
-        <v>6</v>
-      </c>
-      <c r="H57" s="8">
-        <v>5</v>
-      </c>
-      <c r="I57" s="8">
-        <v>7</v>
-      </c>
-      <c r="J57" s="8">
-        <v>5</v>
-      </c>
-      <c r="K57" s="9"/>
+      <c r="E57" s="17">
+        <v>6</v>
+      </c>
+      <c r="F57" s="17">
+        <v>7</v>
+      </c>
+      <c r="G57" s="17">
+        <v>6</v>
+      </c>
+      <c r="H57" s="17">
+        <v>5</v>
+      </c>
+      <c r="I57" s="17">
+        <v>7</v>
+      </c>
+      <c r="J57" s="17">
+        <v>5</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58" s="15">
         <v>45674.708240740743</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="10">
-        <v>7</v>
-      </c>
-      <c r="F58" s="10">
-        <v>6</v>
-      </c>
-      <c r="G58" s="10">
-        <v>5</v>
-      </c>
-      <c r="H58" s="10">
-        <v>4</v>
-      </c>
-      <c r="I58" s="10">
-        <v>5</v>
-      </c>
-      <c r="J58" s="10">
-        <v>4</v>
-      </c>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="E58" s="19">
+        <v>7</v>
+      </c>
+      <c r="F58" s="19">
+        <v>6</v>
+      </c>
+      <c r="G58" s="19">
+        <v>5</v>
+      </c>
+      <c r="H58" s="19">
+        <v>4</v>
+      </c>
+      <c r="I58" s="19">
+        <v>5</v>
+      </c>
+      <c r="J58" s="19">
+        <v>4</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
